--- a/Amostra - TCC.xlsx
+++ b/Amostra - TCC.xlsx
@@ -115,13 +115,13 @@
     <t xml:space="preserve">Você acredita que a tecnologia tem um impacto negativo na sua vida espiritual?</t>
   </si>
   <si>
-    <t xml:space="preserve">Você costuma utilizar a Bíblia virtual durante os cultos da igreja em que você congrega?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quando você visita uma outra igreja, você costuma utilizar a Bíblia física ou a Bíblia virtual?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Você se sente confortável usando a Bíblia virtual durante os cultos?  </t>
+    <t xml:space="preserve">Você costuma utilizar a Bíblia digital durante os cultos da igreja em que você congrega?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando você visita uma outra igreja, você costuma utilizar a Bíblia física ou a Bíblia digital?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você se sente confortável usando a Bíblia digital durante os cultos?  </t>
   </si>
   <si>
     <t xml:space="preserve">Como a utilização da Bíblia digital em comparação com a Bíblia física afeta a sua concentração durante os cultos? </t>
@@ -133,25 +133,25 @@
     <t xml:space="preserve">O fato de outros utilizarem o celular durante os cultos e atividades afeta a sua concentração? </t>
   </si>
   <si>
-    <t xml:space="preserve">Das situações abaixo, qual(is) você considera que prejudica(m) mais sua concentração durante o culto do que o uso da Bíblia virtual? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em que situações você prefere usar a Bíblia virtual?</t>
+    <t xml:space="preserve">Das situações abaixo, qual(is) você considera que prejudica(m) mais sua concentração durante o culto do que o uso da Bíblia digital? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em que situações você prefere usar a Bíblia digital?</t>
   </si>
   <si>
     <t xml:space="preserve">Em que situações você prefere usar a Bíblia física?</t>
   </si>
   <si>
-    <t xml:space="preserve">Durante os cultos, você gosta mais de utilizar a Bíblia física ou a Bíblia virtual?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quais são, na sua opinião, os principais benefícios de utilizar a Bíblia virtual durante os cultos?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quais são, na sua opinião, os principais malefícios de utilizar a Bíblia virtual durante os cultos?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Você sente que a Bíblia virtual é mais conveniente que a Bíblia física em termos de acesso, leitura e/ou interação?</t>
+    <t xml:space="preserve">Durante os cultos, você gosta mais de utilizar a Bíblia física ou a Bíblia digital?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são, na sua opinião, os principais benefícios de utilizar a Bíblia digital durante os cultos?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são, na sua opinião, os principais malefícios de utilizar a Bíblia digital durante os cultos?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você sente que a Bíblia digital é mais conveniente que a Bíblia física em termos de acesso, leitura e/ou interação?</t>
   </si>
   <si>
     <t xml:space="preserve">Se a sua igreja solicitasse que os fiéis desligassem ou não utilizassem o celular durante os cultos, você atenderia a essa solicitação? </t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Das situações abaixo, qual(is) você considera que prejudica(m) mais sua concentração durante o culto do que pessoas utilizando o celular? </t>
   </si>
   <si>
-    <t xml:space="preserve">Há algo mais que você gostaria de compartilhar sobre a utilização da Bíblia virtual durante os cultos?</t>
+    <t xml:space="preserve">Há algo mais que você gostaria de compartilhar sobre a utilização da Bíblia digital durante os cultos?</t>
   </si>
   <si>
     <t xml:space="preserve">Entre 18 e 29 anos</t>
@@ -241,7 +241,7 @@
     <t xml:space="preserve">Consultar a Bíblia ou aplicativos religiosos</t>
   </si>
   <si>
-    <t xml:space="preserve">Algumas vezes utilizo a Bíblia física e em outras utilizo a Bíblia virtual</t>
+    <t xml:space="preserve">Algumas vezes utilizo a Bíblia física e em outras utilizo a Bíblia digital</t>
   </si>
   <si>
     <t xml:space="preserve">Não faz diferença - A Bíblia digital não altera minha concentração, comparada à Bíblia física.</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">Distrações causadas por notificações e outros aplicativos no celular, Dificuldade em focar devido à tentação de usar outras funções do dispositivo, Menos facilidade em fazer anotações ou destacar textos em comparação com a Bíblia física, Dificuldade em manter a concentração em um ambiente digital com muitas distrações</t>
   </si>
   <si>
-    <t xml:space="preserve">Eu costumo utilizar bíblia física, pois sinto que todas as vezes que utilizei a virtual, me sentia distraída. Acho que estar com o celular junto a si, já é um lembrete de que existe um mundo de coisas para serem feitas, pessoas para responder e coisas para ver. Creio também que o uso da bíblia online pode dificultar a memorização e apreensão do conteúdo bíblico, visto que, quando usamos o smartphone entramos em apps que nos hiper estimulam de muitas formas o que consequentemente nos deixa dispersos e isso se aplica a bíblia online.</t>
+    <t xml:space="preserve">Eu costumo utilizar bíblia física, pois sinto que todas as vezes que utilizei a digital, me sentia distraída. Acho que estar com o celular junto a si, já é um lembrete de que existe um mundo de coisas para serem feitas, pessoas para responder e coisas para ver. Creio também que o uso da bíblia online pode dificultar a memorização e apreensão do conteúdo bíblico, visto que, quando usamos o smartphone entramos em apps que nos hiper estimulam de muitas formas o que consequentemente nos deixa dispersos e isso se aplica a bíblia online.</t>
   </si>
   <si>
     <t xml:space="preserve">Menos de 1 ano</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">Distrações causadas por notificações e outros aplicativos no celular, Possível perda de conexão com a leitura física e a experiência tradicional, Menos facilidade em fazer anotações ou destacar textos em comparação com a Bíblia física, Dificuldade em manter a concentração em um ambiente digital com muitas distrações</t>
   </si>
   <si>
-    <t xml:space="preserve">Por mais que a bíblia virtual seja legal pela sua agilidade e eficaz em encontrar os versículos ou até mesmo por você sempre está com o celular, mais ela tira a sua atenção para o que na verdade a leitura quê dizer, por algumas notificações indesejáveis a pessoa perde o foco....</t>
+    <t xml:space="preserve">Por mais que a bíblia digital seja legal pela sua agilidade e eficaz em encontrar os versículos ou até mesmo por você sempre está com o celular, mais ela tira a sua atenção para o que na verdade a leitura quê dizer, por algumas notificações indesejáveis a pessoa perde o foco....</t>
   </si>
   <si>
     <t xml:space="preserve">Ensino Médio incompleto</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">Possível perda de conexão com a leitura física e a experiência tradicional, Menos facilidade em fazer anotações ou destacar textos em comparação com a Bíblia física</t>
   </si>
   <si>
-    <t xml:space="preserve">Na minha opinião a biblia virtual as vezes tira a atenção de alguns membros.</t>
+    <t xml:space="preserve">Na minha opinião a biblia digital as vezes tira a atenção de alguns membros.</t>
   </si>
   <si>
     <t xml:space="preserve">Igreja Batista Jardim Esther</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">Não.</t>
   </si>
   <si>
-    <t xml:space="preserve">Normalmente utilizo a Bíblia virtual</t>
+    <t xml:space="preserve">Normalmente utilizo a Bíblia digital</t>
   </si>
   <si>
     <t xml:space="preserve">Sim, tento focar apenas na leitura da Bíblia e evito outras funções do celular</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">Durante o culto, Em reuniões de grupo</t>
   </si>
   <si>
-    <t xml:space="preserve">Prefiro a Bíblia virtual</t>
+    <t xml:space="preserve">Prefiro a Bíblia digital</t>
   </si>
   <si>
     <t xml:space="preserve">Acesso rápido a diferentes versões da Bíblia, Facilidade em buscar palavras e versículos específicos, Conveniência de carregar vários textos e recursos em um só dispositivo, Funcionalidade de fazer anotações e destacar textos de forma digital</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">Dificuldade em focar devido à tentação de usar outras funções do dispositivo</t>
   </si>
   <si>
-    <t xml:space="preserve">Uso da Bíblia virtual</t>
+    <t xml:space="preserve">Uso da Bíblia digital</t>
   </si>
   <si>
     <t xml:space="preserve">O uso de bíblia online a depender do uso pode se utilizado com equipamentos de concentração pode gerar muitos benefícios pelo acesso rápido a outras informações. Porém em outra perspectiva pode atrapalhar uma vez que mensagens, e outras atividades tirem sua atenção do culto. </t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">Condições desconfortáveis no ambiente (temperatura, iluminação, ruídos externos), Conversas paralelas e movimentação de pessoas, Problemas com equipamentos audiovisuais (som, projeção), Falta de envolvimento com o culto</t>
   </si>
   <si>
-    <t xml:space="preserve">A geração mais atual - não conseguem em sua maioria utilizar nada que não seja virtual. Fico triste - pois, a forma impressa é maravilhosa </t>
+    <t xml:space="preserve">A geração mais atual - não conseguem em sua maioria utilizar nada que não seja digital. Fico triste - pois, a forma impressa é maravilhosa </t>
   </si>
   <si>
     <t xml:space="preserve">Igreja Batista no José Américo</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">Condições desconfortáveis no ambiente (temperatura, iluminação, ruídos externos), Assentos desconfortáveis ou espaço apertado, Presença de alimentos e bebidas, Conversas paralelas e movimentação de pessoas, Problemas com equipamentos audiovisuais (som, projeção), Falta de envolvimento com o culto</t>
   </si>
   <si>
-    <t xml:space="preserve">Quando estou sem a Bíblica virtual </t>
+    <t xml:space="preserve">Quando estou sem a Bíblica digital </t>
   </si>
   <si>
     <t xml:space="preserve">Acesso rápido a diferentes versões da Bíblia, Facilidade em buscar palavras e versículos específicos, Conveniência de carregar vários textos e recursos em um só dispositivo, Possibilidade de acessar comentários e notas bíblicas adicionais, Redução de peso e volume ao não precisar carregar uma Bíblia física, Possibilidade de acessar recursos multimídia, como vídeos e áudio relacionados à Bíblia</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">Redes sociais (Facebook, Instagram, WhatsApp), Trabalho ou estudos, Uso religioso (aplicativos bíblicos, estudo da fé)</t>
   </si>
   <si>
-    <t xml:space="preserve">Com a utilização da BÍBLIA virtual constantemente, as pessoas perdem a habilidade de manusear a BÍBLIA física. </t>
+    <t xml:space="preserve">Com a utilização da BÍBLIA digital constantemente, as pessoas perdem a habilidade de manusear a BÍBLIA física. </t>
   </si>
   <si>
     <t xml:space="preserve">Comunicação (chamadas, mensagens), Redes sociais (Facebook, Instagram, WhatsApp), Informação (navegação na internet, notícias), Uso religioso (aplicativos bíblicos, estudo da fé)</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">Eu acho muito prejudicial pois tira o leitor de aprender a manusear a bíblia </t>
   </si>
   <si>
-    <t xml:space="preserve">Eu prezo por levar minha Bíblia impressa sempre que posso aos cultos, mas dependendo do veículo que vou (moto, por exemplo), às vezes não cabe na bolsa e prefiro usar a versão virtual, mas aí ou desligo a internet para não me desconcentrar, ou me policio para não sair do app.</t>
+    <t xml:space="preserve">Eu prezo por levar minha Bíblia impressa sempre que posso aos cultos, mas dependendo do veículo que vou (moto, por exemplo), às vezes não cabe na bolsa e prefiro usar a versão digital, mas aí ou desligo a internet para não me desconcentrar, ou me policio para não sair do app.</t>
   </si>
   <si>
     <t xml:space="preserve">Comunicação (chamadas, mensagens), Entretenimento (jogos, vídeos, música), Trabalho ou estudos</t>
@@ -1282,7 +1282,7 @@
     <t xml:space="preserve">Acesso rápido a diferentes versões da Bíblia, Facilidade em buscar palavras e versículos específicos, Redução de peso e volume ao não precisar carregar uma Bíblia física</t>
   </si>
   <si>
-    <t xml:space="preserve">Acredito que uma orientação para desligar a internet e colocar o celular no silencioso, seriam suficientes para evitar problemas de distração, permitindo a utilização da bíblia virtual.</t>
+    <t xml:space="preserve">Acredito que uma orientação para desligar a internet e colocar o celular no silencioso, seriam suficientes para evitar problemas de distração, permitindo a utilização da bíblia digital.</t>
   </si>
   <si>
     <t xml:space="preserve">Redes sociais (Facebook, Instagram, WhatsApp), Entretenimento (jogos, vídeos, música), Informação (navegação na internet, notícias), Trabalho ou estudos, Uso religioso (aplicativos bíblicos, estudo da fé)</t>
@@ -1366,10 +1366,10 @@
     <t xml:space="preserve">Distrações causadas por notificações e outros aplicativos no celular, Menos facilidade em fazer anotações ou destacar textos em comparação com a Bíblia física, Dificuldade em manter a concentração em um ambiente digital com muitas distrações</t>
   </si>
   <si>
-    <t xml:space="preserve">A bíblia virtual, pode levar a falta de atenção, por conta de notificações. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caso seja ultilizado de uma forma que não atrapalhe, é normal, mas se for usado ora vee mensagem em grupos, ou situações inúteis, acho que seja errado a utilização da bíblia virtual</t>
+    <t xml:space="preserve">A bíblia digital, pode levar a falta de atenção, por conta de notificações. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caso seja ultilizado de uma forma que não atrapalhe, é normal, mas se for usado ora vee mensagem em grupos, ou situações inúteis, acho que seja errado a utilização da bíblia digital</t>
   </si>
   <si>
     <t xml:space="preserve">Redes sociais (Facebook, Instagram, WhatsApp)</t>
@@ -1405,7 +1405,7 @@
     <t xml:space="preserve">Presença de alimentos e bebidas, Conversas paralelas e movimentação de pessoas, Falta de envolvimento com o culto</t>
   </si>
   <si>
-    <t xml:space="preserve">Não tenho Bíblia ainda por isso uso a virtual </t>
+    <t xml:space="preserve">Não tenho Bíblia ainda por isso uso a digital </t>
   </si>
   <si>
     <t xml:space="preserve">Aplicativos de Leitura da Bíblia (YouVersion, JFA Offline, Bíblia Online, ou outros), Aplicativos de Devocionais (Devocionais Diários, Palavra Diária, Glorify, ou outros), Aplicativos de Oração (Orações Diárias, Abide, ou outros), Aplicativos de Música e Louvor (Glorify, Hinário, ou outros)</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">Não utilizo o celular durante os cultos e atividades, Responder a mensagens urgentes, Fazer fotos e vídeos para as redes sociais</t>
   </si>
   <si>
-    <t xml:space="preserve">Virtual não </t>
+    <t xml:space="preserve">Digital não </t>
   </si>
   <si>
     <t xml:space="preserve">Aplicativos de Comunidade e Redes Sociais Cristãs (Faithlife, MyFaith, ou outros)</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">Presença de alimentos e bebidas, Conversas paralelas e movimentação de pessoas, Falta de envolvimento com o culto, Nenhuma das opções prejudica mais minha concentração que outras pessoas utilizando celular durante o culto</t>
   </si>
   <si>
-    <t xml:space="preserve">A Bíblia física ainda é a melhor a ser utilizada no culto. Quem usa a Bíblia virtual no culto é porque tem vergonha de conduzí-la e principalmente, mostra que a pessoa não ler a Bíblia durante a semana em sua casa.</t>
+    <t xml:space="preserve">A Bíblia física ainda é a melhor a ser utilizada no culto. Quem usa a Bíblia digital no culto é porque tem vergonha de conduzí-la e principalmente, mostra que a pessoa não ler a Bíblia durante a semana em sua casa.</t>
   </si>
   <si>
     <t xml:space="preserve">Primeira Igreja Batista Bairro Popular</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">Condições desconfortáveis no ambiente (temperatura, iluminação, ruídos externos), Conversas paralelas e movimentação de pessoas, Preocupações pessoais ou questões emocionais, Nenhuma das opções prejudica mais minha concentração que outras pessoas utilizando celular durante o culto</t>
   </si>
   <si>
-    <t xml:space="preserve">Biblia virtual durante o culto, se torna uma total distração, por isso uso a Biblia física pra me concentrar mais.
+    <t xml:space="preserve">Biblia digital durante o culto, se torna uma total distração, por isso uso a Biblia física pra me concentrar mais.
 </t>
   </si>
   <si>
@@ -1683,7 +1683,7 @@
     <t xml:space="preserve">Condições desconfortáveis no ambiente (temperatura, iluminação, ruídos externos), Assentos desconfortáveis ou espaço apertado, Presença de alimentos e bebidas, Conversas paralelas e movimentação de pessoas, Problemas com equipamentos audiovisuais (som, projeção), Roupas inadequadas ou desconfortáveis, Preocupações pessoais ou questões emocionais, Dificuldades na compreensão do conteúdo ou linguagem</t>
   </si>
   <si>
-    <t xml:space="preserve">Penso que isso é uma modernidade que não se enquadra com a igreja, tira a essência de levar a sua Bíblia e ter o contato verdadeiro com a palavra de Jesus Cristo. A Bíblia não se atualiza, nem fica mais tecnológica, acho um grande erro e muita falta de reverência obter uma “web Bíblia” mas há pessoas para tudo hoje em dia, mas discordo totalmente que usem uma bíblia virtual.</t>
+    <t xml:space="preserve">Penso que isso é uma modernidade que não se enquadra com a igreja, tira a essência de levar a sua Bíblia e ter o contato verdadeiro com a palavra de Jesus Cristo. A Bíblia não se atualiza, nem fica mais tecnológica, acho um grande erro e muita falta de reverência obter uma “web Bíblia” mas há pessoas para tudo hoje em dia, mas discordo totalmente que usem uma bíblia digital.</t>
   </si>
   <si>
     <t xml:space="preserve">Comunicação (chamadas, mensagens), Redes sociais (Facebook, Instagram, WhatsApp), Entretenimento (jogos, vídeos, música), Informação (navegação na internet, notícias), Trabalho ou estudos, Uso religioso (aplicativos bíblicos, estudo da fé), Escrever anotações, Compras </t>
@@ -1719,7 +1719,7 @@
     <t xml:space="preserve">Condições desconfortáveis no ambiente (temperatura, iluminação, ruídos externos), Dificuldades na compreensão do conteúdo ou linguagem, Falta de envolvimento com o culto</t>
   </si>
   <si>
-    <t xml:space="preserve">Não concordo com o uso dos aplicativos bíblicos, pois além da distração que pode ocorrer no momento da consulta na Bíblia virtual entre os adultos, gera uma influência entre as crianças adolescentes e jovens e os mesmos tendem a se controlarem menos no que diz respeito a outros aplicativos (WhatsApp, Instagram…).</t>
+    <t xml:space="preserve">Não concordo com o uso dos aplicativos bíblicos, pois além da distração que pode ocorrer no momento da consulta na Bíblia digital entre os adultos, gera uma influência entre as crianças adolescentes e jovens e os mesmos tendem a se controlarem menos no que diz respeito a outros aplicativos (WhatsApp, Instagram…).</t>
   </si>
   <si>
     <t xml:space="preserve">Melhor mesmo é utilizar a Bíblia impressa como antigamente.</t>
@@ -1785,7 +1785,7 @@
     <t xml:space="preserve">Condições desconfortáveis no ambiente (temperatura, iluminação, ruídos externos), Roupas inadequadas ou desconfortáveis, Nenhuma das opções prejudica mais minha concentração que outras pessoas utilizando celular durante o culto</t>
   </si>
   <si>
-    <t xml:space="preserve">Não tenho o hábito de utilizar a Bíblia virtual . Amo mexer no celular , mas na hora do culto se vc não tiver cuidado perde a concentração com as mensagem de WhatsApp que vai chegando. Prefiro a Bíblia física . Quando vejo alguém fazendo a leitura bíblica no celular acho meio desconfortável, pois a mesma pessoa também durante a pregação vejo olhando o celular e com certezas não é lendo o texto bíblico .Eu particularmente não sou a favor da leitura bíblica por aplicativo , somente diante de uma necessidade e se estiver num lugar onde não consigo ter comigo a Bíblia física .</t>
+    <t xml:space="preserve">Não tenho o hábito de utilizar a Bíblia digital . Amo mexer no celular , mas na hora do culto se vc não tiver cuidado perde a concentração com as mensagem de WhatsApp que vai chegando. Prefiro a Bíblia física . Quando vejo alguém fazendo a leitura bíblica no celular acho meio desconfortável, pois a mesma pessoa também durante a pregação vejo olhando o celular e com certezas não é lendo o texto bíblico .Eu particularmente não sou a favor da leitura bíblica por aplicativo , somente diante de uma necessidade e se estiver num lugar onde não consigo ter comigo a Bíblia física .</t>
   </si>
   <si>
     <t xml:space="preserve">Primeira Igreja Batista do Cristo Redentor</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">Aplicativos de Estudo Bíblico e Teologia (Bíblia de Estudo Almeida, Evangelismo, ou outros), Aplicativos de Eventos e Conferências (Eventbrite com eventos cristãos, Church Center App, ou outros)</t>
   </si>
   <si>
-    <t xml:space="preserve">Se utilizar a Bíblia virtual nos cultos a pessoa se distrai e não se concentra </t>
+    <t xml:space="preserve">Se utilizar a Bíblia digital nos cultos a pessoa se distrai e não se concentra </t>
   </si>
   <si>
     <t xml:space="preserve">Condições desconfortáveis no ambiente (temperatura, iluminação, ruídos externos), Problemas com equipamentos audiovisuais (som, projeção), Preocupações pessoais ou questões emocionais</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">Condições desconfortáveis no ambiente (temperatura, iluminação, ruídos externos), Presença de alimentos e bebidas, Conversas paralelas e movimentação de pessoas, Problemas com equipamentos audiovisuais (som, projeção), Dificuldades na compreensão do conteúdo ou linguagem, Falta de envolvimento com o culto</t>
   </si>
   <si>
-    <t xml:space="preserve">Na minha opinião. Acho desnecessário Bíblia virtual.</t>
+    <t xml:space="preserve">Na minha opinião. Acho desnecessário Bíblia digital.</t>
   </si>
   <si>
     <t xml:space="preserve">Acesso rápido a diferentes versões da Bíblia, Facilidade em buscar palavras e versículos específicos, Funcionalidade de fazer anotações e destacar textos de forma digital, Possibilidade de acessar recursos multimídia, como vídeos e áudio relacionados à Bíblia</t>
@@ -1980,7 +1980,7 @@
     <t xml:space="preserve">Nenhuma das opções prejudica mais minha concentração que outras pessoas utilizando celular durante o culto, </t>
   </si>
   <si>
-    <t xml:space="preserve">Acho que o uso da bíblia virtual deixou muitos cristão acomodados, a bíblia empresa não vemos muito hoje , o uso da bíblia virtual é como se fosse moda. </t>
+    <t xml:space="preserve">Acho que o uso da bíblia digital deixou muitos cristão acomodados, a bíblia empresa não vemos muito hoje , o uso da bíblia digital é como se fosse moda. </t>
   </si>
   <si>
     <t xml:space="preserve">Conversas paralelas e movimentação de pessoas, Problemas com equipamentos audiovisuais (som, projeção), Roupas inadequadas ou desconfortáveis</t>
@@ -2001,7 +2001,7 @@
     <t xml:space="preserve">Condições desconfortáveis no ambiente (temperatura, iluminação, ruídos externos), Assentos desconfortáveis ou espaço apertado</t>
   </si>
   <si>
-    <t xml:space="preserve">A bíblia virtual é muito prática , mas acredito que deixa os cristãos " preguiçosos "  pois muitos não conseguem mas achar um texto na bíblia tradicional , não conseguem "conhecer" de tão acostumados com a praticidade da virtual. Além das várias distrações que o celular pode gerar. </t>
+    <t xml:space="preserve">A bíblia digital é muito prática , mas acredito que deixa os cristãos " preguiçosos "  pois muitos não conseguem mas achar um texto na bíblia tradicional , não conseguem "conhecer" de tão acostumados com a praticidade da digital. Além das várias distrações que o celular pode gerar. </t>
   </si>
   <si>
     <t xml:space="preserve">Primeira Igreja Batista em Forte Velho</t>
@@ -2016,7 +2016,7 @@
     <t xml:space="preserve">Primeira Igreja Batista em Itapororoca</t>
   </si>
   <si>
-    <t xml:space="preserve">Com a bíblia virtual os cristãos deixam de andar com as suas bíblias físicas na mão
+    <t xml:space="preserve">Com a bíblia digital os cristãos deixam de andar com as suas bíblias físicas na mão
 Andar com a bíblia é tmb um testemunho</t>
   </si>
   <si>
@@ -2086,7 +2086,7 @@
     <t xml:space="preserve">Possibilidade de acessar recursos multimídia, como vídeos e áudio relacionados à Bíblia</t>
   </si>
   <si>
-    <t xml:space="preserve">Hoje em levar o celular para a igreja, não vemos mais irmãos usarem a bíblia física, além disso desconcentiza do culto, mensagem, e interação, integração espiritual. Interagindo nos cultos, com outros aplicativos,  possivelmente seja esse um dos malefícios, o outro é o desinteresse de estudar a bíblia física, em suas devocionais tornando enfadonho, já a bíblia virtual já traz tudo pronto. Lhe parabenizo meu caro irmão, sobre sua tese escolhida desejo sorte e com certeza aprovação de toda a banca examinadora, as perguntas da pesquisa foram pertinentes, objetivas e racionais. Abraços Fraternos e a Paz do Senhor Jesus Cristo.</t>
+    <t xml:space="preserve">Hoje em levar o celular para a igreja, não vemos mais irmãos usarem a bíblia física, além disso desconcentiza do culto, mensagem, e interação, integração espiritual. Interagindo nos cultos, com outros aplicativos,  possivelmente seja esse um dos malefícios, o outro é o desinteresse de estudar a bíblia física, em suas devocionais tornando enfadonho, já a bíblia digital já traz tudo pronto. Lhe parabenizo meu caro irmão, sobre sua tese escolhida desejo sorte e com certeza aprovação de toda a banca examinadora, as perguntas da pesquisa foram pertinentes, objetivas e racionais. Abraços Fraternos e a Paz do Senhor Jesus Cristo.</t>
   </si>
   <si>
     <t xml:space="preserve">Primeira Igreja Batista Potyguara</t>
@@ -2107,7 +2107,7 @@
     <t xml:space="preserve">Condições desconfortáveis no ambiente (temperatura, iluminação, ruídos externos), Problemas com equipamentos audiovisuais (som, projeção)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sim. Por que utilizar a Bíblia virtual e não a impressa?</t>
+    <t xml:space="preserve">Sim. Por que utilizar a Bíblia digital e não a impressa?</t>
   </si>
   <si>
     <t xml:space="preserve">Segunda Igreja Batista em Tibiri II</t>
@@ -2126,19 +2126,19 @@
     <t xml:space="preserve">Condições desconfortáveis no ambiente (temperatura, iluminação, ruídos externos), Assentos desconfortáveis ou espaço apertado, Conversas paralelas e movimentação de pessoas, Roupas inadequadas ou desconfortáveis</t>
   </si>
   <si>
-    <t xml:space="preserve">Não diria diretamente sobre a Bíblia virtual, mas ao uso do celular de forma inapropriada para o ambiente, pois desconecta totalmente da presença de Deus.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em certos casos é bom ter a bíblia virtual, mas temos que ter cuidado para não se tornar hábito </t>
+    <t xml:space="preserve">Não diria diretamente sobre a Bíblia digital, mas ao uso do celular de forma inapropriada para o ambiente, pois desconecta totalmente da presença de Deus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em certos casos é bom ter a bíblia digital, mas temos que ter cuidado para não se tornar hábito </t>
   </si>
   <si>
     <t xml:space="preserve">A tecnologia bem usada, é uma excelente ferramenta de evangelização. </t>
   </si>
   <si>
-    <t xml:space="preserve">Acho legal usar a bíblia virtual, aí vai de cada um ,mais prefiro a física, as vezes uso a virtual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O uso da bíblia virtual vai depender como a ferramenta é usada. Deus coloca em nossa frente a vida ou a morte, escolha hoje qual você prefere! </t>
+    <t xml:space="preserve">Acho legal usar a bíblia digital, aí vai de cada um ,mais prefiro a física, as vezes uso a digital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O uso da bíblia digital vai depender como a ferramenta é usada. Deus coloca em nossa frente a vida ou a morte, escolha hoje qual você prefere! </t>
   </si>
   <si>
     <t xml:space="preserve">Só usar em caso de urgência </t>
@@ -2158,7 +2158,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2187,12 +2187,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2237,33 +2231,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2288,178 +2278,178 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="H1" activeCellId="98" sqref="AF1 AG1:AG2 AG16 AG25:AG26 AG28 AG30:AG32 AG34 AG46:AG48 AG52:AG53 AG57 AG59:AG61 AG63:AG64 AG66:AG67 AG74 AG76 AG78:AG79 AG87 AG89:AG91 AG113:AG114 AG119 AG124 AG135 AG137 AG140 AG146 AG149 AG152 AG157 AG163 AG167 AG175:AG176 AG187 AG203 AG215 AH1 AL1:AM1 AN34:AO34 AO1:AR1 AO30:AO32 AO47:AO48 AO52 AO59 AO63 AO65 AO74 AO76 AO78 AO87 AO90 AO149 AO152 AO157 AO163 AO167 AO175 AU31:AU32 AU34 AU52 AU64 AU69 AU76 AU86:AU87 AU90 AU95 AU112 AU140 AU148:AU149 AU152 AU157 AU163 AU167:AU168 AU174 AX1 BA1 BA9 BA18 BA24 BA33 BA40 BA50 BA74 BA85:BA86 BA90 BA117 BA126 BA134 BA144 BA153 BA161 BA166 BA185 BA189 BA191 BA203 BA206 BA209:BA210 BA213 BA215 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="8" style="0" width="18.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="66.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="54" style="0" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="43.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="8" style="1" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="66.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="54" style="1" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -11681,7 +11671,7 @@
       <c r="D73" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="2" t="s">
         <v>413</v>
       </c>
       <c r="F73" s="2" t="s">
